--- a/medicine/Médecine vétérinaire/Philippe_Thomas_(géologue)/Philippe_Thomas_(géologue).xlsx
+++ b/medicine/Médecine vétérinaire/Philippe_Thomas_(géologue)/Philippe_Thomas_(géologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philippe_Thomas_(g%C3%A9ologue)</t>
+          <t>Philippe_Thomas_(géologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Thomas, de son nom complet Philippe Étienne Thomas, né le 4 mai 1843 à Duerne dans le Rhône et mort le 12 février 1910 à Moulins dans l'Allier, est un géologue amateur français.
 Vétérinaire militaire, il effectue des missions en Algérie. Il y mène quelques recherches vétérinaires puis archéologiques avant de s'intéresser à la paléontologie. Il y rencontre des scientifiques qui font appel à lui pour l'exploration géologique de la Tunisie. Il s'y illustre particulièrement par la découverte des gisements de phosphates, l'une des richesses de ce pays.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philippe_Thomas_(g%C3%A9ologue)</t>
+          <t>Philippe_Thomas_(géologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Thomas naît le 4 mai 1843 à Duerne dans le département français du Rhône. Il est le fils du brigadier de gendarmerie Claude Thomas et de Louise Dubois[1]. À sa retraite, son père devient concierge de l'usine Martin, sise faubourg de Lyon à Tarare, commune où Philippe passe sa jeunesse jusqu'en 1859, avec l'attention bienveillante de l'industriel, Jean-Baptiste Martin[n 1], et de sa famille[2].
-Il meurt le 12 février 1910 à Moulins dans l'Allier[3], d'une maladie contractée lors de ses voyages[2].
-Il est le père d'une fille prénommée Marie-Louise[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Thomas naît le 4 mai 1843 à Duerne dans le département français du Rhône. Il est le fils du brigadier de gendarmerie Claude Thomas et de Louise Dubois. À sa retraite, son père devient concierge de l'usine Martin, sise faubourg de Lyon à Tarare, commune où Philippe passe sa jeunesse jusqu'en 1859, avec l'attention bienveillante de l'industriel, Jean-Baptiste Martin[n 1], et de sa famille.
+Il meurt le 12 février 1910 à Moulins dans l'Allier, d'une maladie contractée lors de ses voyages.
+Il est le père d'une fille prénommée Marie-Louise.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Philippe_Thomas_(g%C3%A9ologue)</t>
+          <t>Philippe_Thomas_(géologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Carrière militaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 1er octobre 1860, il entre comme élève à l'École impériale vétérinaire d'Alfort, où il reste quatre ans. Ses études terminées, il devient aide vétérinaire pendant près de huit ans, d'abord à l'École impériale de cavalerie de Saumur[n 2], puis au 1er régiment de cuirassiers à Haguenau[5], et enfin au 2e régiment de hussards, au 1er régiment de spahis algériens et au régiment des éclaireurs algériens à partir du 16 novembre 1870. Il y fait la campagne contre l'Allemagne du 22 novembre 1870 au 7 mars 1871. Il réintègre le 1er régiment de spahis algériens le 1er septembre 1871[3].
-C'est dans ce dernier régiment qu'il est promu vétérinaire en second le 22 juin 1872. Il est affecté dans plusieurs garnisons et réalise plusieurs expéditions dans le Sahara[5]. Il participe notamment à la répression de la révolte de Mokrani[4]. Il y reste jusqu'au 26 mai 1875, puis devient directeur de la ferme-pénitencier d'Aïn El Bey. Il devient vétérinaire en premier[n 3] au 10e régiment de hussards le 4 février 1879 et le reste pendant presque treize ans[3].
-Le 1er novembre 1891, il devient directeur du 8e ressort vétérinaire à Montpellier avec le grade de vétérinaire principal de 2e classe[6]. Le 14 novembre 1894, il rejoint le ministère de la Guerre comme membre de la section technique du comité de la cavalerie[7]. Le 5 octobre 1895, il est promu vétérinaire principal de 1re classe et devient directeur du 1er ressort vétérinaire[8]. Il prend se retraite le 16 mai 1901[9].
-Pendant cette carrière, Philippe Thomas a effectué douze campagnes[10], dont deux en Algérie, du 12 janvier 1869 au 12 novembre 1870 et du 22 mars 1871 au 30 octobre 1880[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er octobre 1860, il entre comme élève à l'École impériale vétérinaire d'Alfort, où il reste quatre ans. Ses études terminées, il devient aide vétérinaire pendant près de huit ans, d'abord à l'École impériale de cavalerie de Saumur[n 2], puis au 1er régiment de cuirassiers à Haguenau, et enfin au 2e régiment de hussards, au 1er régiment de spahis algériens et au régiment des éclaireurs algériens à partir du 16 novembre 1870. Il y fait la campagne contre l'Allemagne du 22 novembre 1870 au 7 mars 1871. Il réintègre le 1er régiment de spahis algériens le 1er septembre 1871.
+C'est dans ce dernier régiment qu'il est promu vétérinaire en second le 22 juin 1872. Il est affecté dans plusieurs garnisons et réalise plusieurs expéditions dans le Sahara. Il participe notamment à la répression de la révolte de Mokrani. Il y reste jusqu'au 26 mai 1875, puis devient directeur de la ferme-pénitencier d'Aïn El Bey. Il devient vétérinaire en premier[n 3] au 10e régiment de hussards le 4 février 1879 et le reste pendant presque treize ans.
+Le 1er novembre 1891, il devient directeur du 8e ressort vétérinaire à Montpellier avec le grade de vétérinaire principal de 2e classe. Le 14 novembre 1894, il rejoint le ministère de la Guerre comme membre de la section technique du comité de la cavalerie. Le 5 octobre 1895, il est promu vétérinaire principal de 1re classe et devient directeur du 1er ressort vétérinaire. Il prend se retraite le 16 mai 1901.
+Pendant cette carrière, Philippe Thomas a effectué douze campagnes, dont deux en Algérie, du 12 janvier 1869 au 12 novembre 1870 et du 22 mars 1871 au 30 octobre 1880.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Philippe_Thomas_(g%C3%A9ologue)</t>
+          <t>Philippe_Thomas_(géologue)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,22 +598,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Algérie
-Il profite de ses missions ou de ses loisirs pour mener quelques recherches[11]. De 1874 à 1880, pendant son séjour en Algérie, il publie treize articles consacrés à la médecine vétérinaire ou la zootechnie, dont onze dans le Journal de médecine et de pharmacie de l'Algérie. Il mène ensuite des études archéologiques sur un atelier de silex taillés à Ouargla[12], un tumulus paléolithique à Aïn M'lila, la nécropole de Sigus et sur les sépultures anciennes des environs d'Aïn El Bey[13].
-Mais très rapidement, il se tourne vers la géologie, probablement influencé par la rencontre de trois personnes capitales[14] : Georges Le Mesle, Albert Gaudry et Jules Tissot. Il étudie ainsi les bovidés fossiles, la stratigraphie et la paléontologie des formations d'eau douce. Toute particulière est sa découverte en 1873 du Suessonien (ou Éocène inférieur) près de Boghari. Il est intrigué par des moules de nucules et de petits gastéropodes. Leur analyse révèle la présence de phosphate de chaux. Mais, à l'époque, ces composés n'avaient fait l'objet d'aucune application[14].
-En Tunisie
-Organisation des missions
-À la suite du traité du Bardo le 12 mai 1881 et des conventions de La Marsa le 8 juin 1883, Jules Ferry, ministre de l'Instruction publique, souhaite développer une politique scientifique en Tunisie pour en prospecter les ressources naturelles. Ernest Cosson est chargé de la piloter. Alors qu'il avait rejoint la métropole en 1880, Philippe Thomas, grâce à sa notoriété et à sa connaissance du terrain, et à la proposition d'Albert Gaudry[15] est nommé le 1er décembre 1884 par Jules Ferry[5], aux côtés de Georges Rolland et de Georges Le Mesle[14].
-Il y réalise deux missions paléontologiques en 1885 et en 1886 mais ne participe pas aux explorations suivantes en raison de l'opposition de sa hiérarchie[16]. Outre les découvertes suivantes, il collecte une centaine de plantes pour Cosson[15].
-Découvertes paléontologiques
-Lors de ses deux expéditions, il collecte de nombreux fossiles. Il en décrit quelques-uns dans son livre paru en 1891 et dans quelques notes[17] faites à la Société géologique de France. Il découvre notamment au Djebel Selja un crocodile fossilisé qu'il décrit comme Crocodilus phosphaticus[18] qu'Auguste Pomel[19] a renommé en Dyrosaurus phosphaticus Thomas, dénomination qu'il conserve aujourd'hui[20].
-Il confie l'étude et la publication de nombreux fossiles à des confrères : Arnould Locard pour les mollusques[21], Alphonse Péron pour les mollusques et les zoophytes de terrains secondaires[22],[23], Ferdinand Canu[24] pour les Bryozoaires, Victor Gauthier pour les échinodermes[25], mais également Paul Fliche pour les végétaux fossiles, Charles Schlumberger pour les Foraminifères et enfin Henri Émile Sauvage[26] et Fernand Priem pour les poissons[13].
-L'étude des fossiles collectés est ainsi réunie dans six ouvrages et un atlas paléontologique contenant la description de plus de 300 espèces nouvelles, critiques ou peu connues[27].
-Découverte des phosphates
-En mai et juin 1885[28], Philippe Thomas explore, à la recherche de fossiles, le Sud-Ouest de la Tunisie, plus particulièrement la chaîne montagneuse allant de Gafsa à la frontière tuniso-algérienne et séparant les hauts plateaux des chotts. Il y découvre « d'importants gisements de chaux phosphatée », sur un espace d'environ 80 kilomètres de long. Mais il pressent déjà pouvoir les retrouver à l'est de Gafsa, entre le Djebel Orbata et sur tout le versant sud-est de l'Aurès. Les couches marneuses contiennent des phosphorites sous la forme de coprolithes cylindriques de toute taille, de gros nodules jaunes de plusieurs kilos et d'autres plus petits, noirs ou blancs. Les deux premiers sont les plus riches en phosphate.
-Philippe Thomas conclut sa note à l'Académie des sciences en évoquant l'importance agricole et économique possible de ce gisement.
-Au printemps 1886[29], Thomas réalise de nouvelles prospections. Tout d'abord, il étend le précédent gisement jusqu'à proximité de Gafsa. Au sud-est, au-delà du Djebel Berda, il identifie une autre couche renfermant des phosphates : l'Albien. Cet affleurement se retrouve plus au nord, près de Fériana. Enfin, il retrouve du suessonien phosphaté près de Kairouan et près de Kalaat Senan.
-Dans son rapport présenté en 1891 à la Société géologique de France[30], il met en perspective l'exploitation de cette ressource. Les plus importants et les plus riches gisements sont situés dans le Sud-Ouest. Ils « peuvent donner lieu à une exploitation importante et très rémunératrice, à la seule condition qu'une voie ferrée les reliera à la mer [...] On peut compter sur un minimum de 10 000 000 de tonnes de ce phosphate à extraire à ciel ouvert, rien que dans le massif occidental de Gafsa ». Même s'ils sont moins riches, les gisements suessoniens du Nord devraient être également exploitables, contrairement au crétacé de l'Albien et du Santonien.
+          <t>En Algérie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il profite de ses missions ou de ses loisirs pour mener quelques recherches. De 1874 à 1880, pendant son séjour en Algérie, il publie treize articles consacrés à la médecine vétérinaire ou la zootechnie, dont onze dans le Journal de médecine et de pharmacie de l'Algérie. Il mène ensuite des études archéologiques sur un atelier de silex taillés à Ouargla, un tumulus paléolithique à Aïn M'lila, la nécropole de Sigus et sur les sépultures anciennes des environs d'Aïn El Bey.
+Mais très rapidement, il se tourne vers la géologie, probablement influencé par la rencontre de trois personnes capitales : Georges Le Mesle, Albert Gaudry et Jules Tissot. Il étudie ainsi les bovidés fossiles, la stratigraphie et la paléontologie des formations d'eau douce. Toute particulière est sa découverte en 1873 du Suessonien (ou Éocène inférieur) près de Boghari. Il est intrigué par des moules de nucules et de petits gastéropodes. Leur analyse révèle la présence de phosphate de chaux. Mais, à l'époque, ces composés n'avaient fait l'objet d'aucune application.
 </t>
         </is>
       </c>
@@ -608,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Philippe_Thomas_(g%C3%A9ologue)</t>
+          <t>Philippe_Thomas_(géologue)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,21 +631,186 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Tunisie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Organisation des missions</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du traité du Bardo le 12 mai 1881 et des conventions de La Marsa le 8 juin 1883, Jules Ferry, ministre de l'Instruction publique, souhaite développer une politique scientifique en Tunisie pour en prospecter les ressources naturelles. Ernest Cosson est chargé de la piloter. Alors qu'il avait rejoint la métropole en 1880, Philippe Thomas, grâce à sa notoriété et à sa connaissance du terrain, et à la proposition d'Albert Gaudry est nommé le 1er décembre 1884 par Jules Ferry, aux côtés de Georges Rolland et de Georges Le Mesle.
+Il y réalise deux missions paléontologiques en 1885 et en 1886 mais ne participe pas aux explorations suivantes en raison de l'opposition de sa hiérarchie. Outre les découvertes suivantes, il collecte une centaine de plantes pour Cosson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe_Thomas_(géologue)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Thomas_(g%C3%A9ologue)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En Tunisie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Découvertes paléontologiques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de ses deux expéditions, il collecte de nombreux fossiles. Il en décrit quelques-uns dans son livre paru en 1891 et dans quelques notes faites à la Société géologique de France. Il découvre notamment au Djebel Selja un crocodile fossilisé qu'il décrit comme Crocodilus phosphaticus qu'Auguste Pomel a renommé en Dyrosaurus phosphaticus Thomas, dénomination qu'il conserve aujourd'hui.
+Il confie l'étude et la publication de nombreux fossiles à des confrères : Arnould Locard pour les mollusques, Alphonse Péron pour les mollusques et les zoophytes de terrains secondaires Ferdinand Canu pour les Bryozoaires, Victor Gauthier pour les échinodermes, mais également Paul Fliche pour les végétaux fossiles, Charles Schlumberger pour les Foraminifères et enfin Henri Émile Sauvage et Fernand Priem pour les poissons.
+L'étude des fossiles collectés est ainsi réunie dans six ouvrages et un atlas paléontologique contenant la description de plus de 300 espèces nouvelles, critiques ou peu connues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philippe_Thomas_(géologue)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Thomas_(g%C3%A9ologue)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En Tunisie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Découverte des phosphates</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai et juin 1885, Philippe Thomas explore, à la recherche de fossiles, le Sud-Ouest de la Tunisie, plus particulièrement la chaîne montagneuse allant de Gafsa à la frontière tuniso-algérienne et séparant les hauts plateaux des chotts. Il y découvre « d'importants gisements de chaux phosphatée », sur un espace d'environ 80 kilomètres de long. Mais il pressent déjà pouvoir les retrouver à l'est de Gafsa, entre le Djebel Orbata et sur tout le versant sud-est de l'Aurès. Les couches marneuses contiennent des phosphorites sous la forme de coprolithes cylindriques de toute taille, de gros nodules jaunes de plusieurs kilos et d'autres plus petits, noirs ou blancs. Les deux premiers sont les plus riches en phosphate.
+Philippe Thomas conclut sa note à l'Académie des sciences en évoquant l'importance agricole et économique possible de ce gisement.
+Au printemps 1886, Thomas réalise de nouvelles prospections. Tout d'abord, il étend le précédent gisement jusqu'à proximité de Gafsa. Au sud-est, au-delà du Djebel Berda, il identifie une autre couche renfermant des phosphates : l'Albien. Cet affleurement se retrouve plus au nord, près de Fériana. Enfin, il retrouve du suessonien phosphaté près de Kairouan et près de Kalaat Senan.
+Dans son rapport présenté en 1891 à la Société géologique de France, il met en perspective l'exploitation de cette ressource. Les plus importants et les plus riches gisements sont situés dans le Sud-Ouest. Ils « peuvent donner lieu à une exploitation importante et très rémunératrice, à la seule condition qu'une voie ferrée les reliera à la mer [...] On peut compter sur un minimum de 10 000 000 de tonnes de ce phosphate à extraire à ciel ouvert, rien que dans le massif occidental de Gafsa ». Même s'ils sont moins riches, les gisements suessoniens du Nord devraient être également exploitables, contrairement au crétacé de l'Albien et du Santonien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Philippe_Thomas_(géologue)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Thomas_(g%C3%A9ologue)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>De retour en France, il communique le fruit de ses recherches par l'intermédiaire de notes, de rapports à l'Académie des sciences et à la Société géologique de France, et de communications. Il intervient ainsi en 1886 lors du congrès de l'Association française pour l'avancement des sciences[31]. Des études plus poussées sont éditées officiellement à l'Imprimerie nationale.
-Outre ses publications académiques, il mène une veille géologique. À la suite de la découverte d'un gisement phosphatier en Algérie, il communique les sites qu'il avait identifiés[32]. Après avoir lu le compte-rendu de découvertes stratigraphiques en Égypte, il écrit à son Institut pour éveiller ses membres sur les possibles gisements phosphatés de leurs horizons suessoniens[33].
-Alors que, depuis une dizaine d'années il ne travaillait plus, ni sur la Tunisie, ni sur la géologie, le ministère de l'Instruction publique le prie, par l'intermédiaire de Georges Rolland, de reprendre la publication des résultats géologiques de la mission[27]. Il publie les deux premiers tomes de son vivant, mais laisse inachevé le troisième, qui paraît grâce aux compléments de Léon Pervinquière.
-Ouvrages
-Philippe Thomas, Recherches stratigraphiques et paléontologiques sur quelques formations d'eau douce de l'Algérie, Paris, Société géologique de France, 1884, 57 p. (lire en ligne).
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De retour en France, il communique le fruit de ses recherches par l'intermédiaire de notes, de rapports à l'Académie des sciences et à la Société géologique de France, et de communications. Il intervient ainsi en 1886 lors du congrès de l'Association française pour l'avancement des sciences. Des études plus poussées sont éditées officiellement à l'Imprimerie nationale.
+Outre ses publications académiques, il mène une veille géologique. À la suite de la découverte d'un gisement phosphatier en Algérie, il communique les sites qu'il avait identifiés. Après avoir lu le compte-rendu de découvertes stratigraphiques en Égypte, il écrit à son Institut pour éveiller ses membres sur les possibles gisements phosphatés de leurs horizons suessoniens.
+Alors que, depuis une dizaine d'années il ne travaillait plus, ni sur la Tunisie, ni sur la géologie, le ministère de l'Instruction publique le prie, par l'intermédiaire de Georges Rolland, de reprendre la publication des résultats géologiques de la mission. Il publie les deux premiers tomes de son vivant, mais laisse inachevé le troisième, qui paraît grâce aux compléments de Léon Pervinquière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Philippe_Thomas_(géologue)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Thomas_(g%C3%A9ologue)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Philippe Thomas, Recherches stratigraphiques et paléontologiques sur quelques formations d'eau douce de l'Algérie, Paris, Société géologique de France, 1884, 57 p. (lire en ligne).
 Philippe Thomas, Description de quelques fossiles nouveaux ou critiques des terrains tertiaires et secondaires de la Tunisie recueillis en 1885 et 1886, Paris, Imprimerie nationale, 1893, 46 p. (lire en ligne).
 Philippe Thomas, Essai d'une description géologique de la Tunisie : d'après les travaux des membres de la mission de l'exploration scientifique de 1884 à 1891 et ceux parus depuis, vol. 1 : Première partie. Aperçu sur la géographie physique, Paris, Imprimerie nationale, 1907, 217 p. (lire en ligne).
 Philippe Thomas, Essai d'une description géologique de la Tunisie : d'après les travaux des membres de la mission de l'exploration scientifique de 1884 à 1891 et ceux parus depuis, vol. 2 : Deuxième partie. Stratigraphie des terrains paléozoïques et mésozoïques, Paris, Imprimerie nationale, 1908, 224-728 p. (lire en ligne).
-Philippe Thomas, Essai d'une description géologique de la Tunisie : d'après les travaux des membres de la mission de l'exploration scientifique de 1884 à 1891 et ceux parus depuis, vol. 3 : Troisième partie. Stratigraphie des terrains cénozoïques, Paris, Imprimerie nationale, 1913, 734-942 p. (lire en ligne).
-Articles</t>
+Philippe Thomas, Essai d'une description géologique de la Tunisie : d'après les travaux des membres de la mission de l'exploration scientifique de 1884 à 1891 et ceux parus depuis, vol. 3 : Troisième partie. Stratigraphie des terrains cénozoïques, Paris, Imprimerie nationale, 1913, 734-942 p. (lire en ligne).</t>
         </is>
       </c>
     </row>
